--- a/fhir/ig/urgencia/StructureDefinition-encuentro-atencion.xlsx
+++ b/fhir/ig/urgencia/StructureDefinition-encuentro-atencion.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5744" uniqueCount="623">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5744" uniqueCount="625">
   <si>
     <t>Property</t>
   </si>
@@ -45,7 +45,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Encounter Atención</t>
+    <t>Encuentro Atención</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-27T17:49:18-04:00</t>
+    <t>2024-08-29T09:57:29-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -90,7 +90,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Registro de un encuentro de atención de urgencia de un paciente en un establecimiento de salud.</t>
+    <t>Registro de un encuentro de atención de urgencia de un paciente en servicio de urgencia de un establecimiento de salud.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -509,6 +509,9 @@
     <t>Note that internal business rules will determine the appropriate transitions that may occur between statuses (and also classes).</t>
   </si>
   <si>
+    <t>finished</t>
+  </si>
+  <si>
     <t>required</t>
   </si>
   <si>
@@ -629,6 +632,12 @@
     <t>Clasificación del encuentro con el paciente</t>
   </si>
   <si>
+    <t>&lt;valueCoding xmlns="http://hl7.org/fhir"&gt;
+  &lt;system value="http://terminology.hl7.org/CodeSystem/v3-ActCode"/&gt;
+  &lt;code value="EMER"/&gt;
+&lt;/valueCoding&gt;</t>
+  </si>
+  <si>
     <t>extensible</t>
   </si>
   <si>
@@ -720,10 +729,15 @@
     <t>Encounter.serviceType</t>
   </si>
   <si>
-    <t>Tipo de servicio que se realiza en el Encuentro</t>
-  </si>
-  <si>
-    <t>Categorización del servicio que se va a prestar en el encuentro (por ejemplo, servicio de Ginecología)</t>
+    <t>Tipo de servicio</t>
+  </si>
+  <si>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="http://proceso-urgencia.minsal.cl/CodeSystem/eventos-urgencia"/&gt;
+    &lt;code value="atencion"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
     <t>https://hl7chile.cl/fhir/ig/clcore/ValueSet/VSTiposServicio</t>
@@ -760,11 +774,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://hl7chile.cl/fhir/ig/clcore/StructureDefinition/CorePacienteCl|Group)
+    <t xml:space="preserve">Reference(http://proceso-urgencia.minsal.cl/StructureDefinition/PacienteUrgencia)
 </t>
   </si>
   <si>
-    <t>Referencia al paciente del encuentro</t>
+    <t>Paciente</t>
   </si>
   <si>
     <t>La referencia al paciente que está presente en el encuentro clínico sobre un paciente nacional.</t>
@@ -1009,7 +1023,7 @@
     <t>Fecha de solicitud de especialista</t>
   </si>
   <si>
-    <t>Esta extensión indica la fecha en la que se solicitó la atención de un especialista en el contexto de un encuentro de atención de urgencia.</t>
+    <t>Extensión que registra la fecha en la que se solicitó la atención de un especialista en el contexto de un encuentro de atención de urgencia.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -1164,7 +1178,7 @@
     <t>Encounter.period.start</t>
   </si>
   <si>
-    <t>Hora de inicio</t>
+    <t>Fecha y hora de que se inicia la atención</t>
   </si>
   <si>
     <t>Encounter.period.end</t>
@@ -1936,11 +1950,11 @@
     <t>Encounter.serviceProvider</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://hl7chile.cl/fhir/ig/clcore/StructureDefinition/CoreOrganizacionCl)
+    <t xml:space="preserve">Reference(http://proceso-urgencia.minsal.cl/StructureDefinition/organizacion-establecimiento)
 </t>
   </si>
   <si>
-    <t>La organización (instalación) responsable de este encuentro</t>
+    <t>Establecimiento de salud</t>
   </si>
   <si>
     <t>The organization that is primarily responsible for this Encounter's services. This MAY be the same as the organization on the Patient record, however it could be different, such as if the actor performing the services was from an external organization (which may be billed seperately) for an external consultation.  Refer to the example bundle showing an abbreviated set of Encounters for a colonoscopy.</t>
@@ -3665,7 +3679,7 @@
         <v>22</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>22</v>
+        <v>158</v>
       </c>
       <c r="T12" t="s" s="2">
         <v>22</v>
@@ -3680,13 +3694,13 @@
         <v>22</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>22</v>
@@ -3719,24 +3733,24 @@
         <v>101</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3759,16 +3773,16 @@
         <v>22</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3818,7 +3832,7 @@
         <v>22</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>80</v>
@@ -3836,7 +3850,7 @@
         <v>22</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>22</v>
@@ -3847,10 +3861,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3873,13 +3887,13 @@
         <v>22</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -3930,7 +3944,7 @@
         <v>22</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>80</v>
@@ -3948,7 +3962,7 @@
         <v>22</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>22</v>
@@ -3959,10 +3973,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3991,7 +4005,7 @@
         <v>136</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="N15" t="s" s="2">
         <v>138</v>
@@ -4044,7 +4058,7 @@
         <v>22</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>80</v>
@@ -4062,7 +4076,7 @@
         <v>22</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>22</v>
@@ -4073,14 +4087,14 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -4102,10 +4116,10 @@
         <v>135</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="N16" t="s" s="2">
         <v>138</v>
@@ -4160,7 +4174,7 @@
         <v>22</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>80</v>
@@ -4189,10 +4203,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -4218,10 +4232,10 @@
         <v>109</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -4248,13 +4262,13 @@
         <v>22</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>22</v>
@@ -4272,7 +4286,7 @@
         <v>22</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>89</v>
@@ -4290,7 +4304,7 @@
         <v>22</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>22</v>
@@ -4301,10 +4315,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4327,13 +4341,13 @@
         <v>22</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -4384,7 +4398,7 @@
         <v>22</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>89</v>
@@ -4402,7 +4416,7 @@
         <v>22</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>22</v>
@@ -4413,10 +4427,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4439,13 +4453,13 @@
         <v>90</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -4457,7 +4471,7 @@
         <v>22</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>22</v>
+        <v>197</v>
       </c>
       <c r="T19" t="s" s="2">
         <v>22</v>
@@ -4472,11 +4486,11 @@
         <v>22</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Y19" s="2"/>
       <c r="Z19" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>22</v>
@@ -4494,7 +4508,7 @@
         <v>22</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>89</v>
@@ -4512,21 +4526,21 @@
         <v>22</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4549,13 +4563,13 @@
         <v>22</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4606,7 +4620,7 @@
         <v>22</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>80</v>
@@ -4624,7 +4638,7 @@
         <v>22</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>22</v>
@@ -4635,10 +4649,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4661,13 +4675,13 @@
         <v>22</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -4718,7 +4732,7 @@
         <v>22</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>80</v>
@@ -4736,7 +4750,7 @@
         <v>22</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>22</v>
@@ -4747,10 +4761,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4779,7 +4793,7 @@
         <v>136</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="N22" t="s" s="2">
         <v>138</v>
@@ -4832,7 +4846,7 @@
         <v>22</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>80</v>
@@ -4850,7 +4864,7 @@
         <v>22</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>22</v>
@@ -4861,14 +4875,14 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
@@ -4890,10 +4904,10 @@
         <v>135</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="N23" t="s" s="2">
         <v>138</v>
@@ -4948,7 +4962,7 @@
         <v>22</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>80</v>
@@ -4977,10 +4991,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -5003,13 +5017,13 @@
         <v>22</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -5036,13 +5050,13 @@
         <v>22</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>22</v>
@@ -5060,7 +5074,7 @@
         <v>22</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>89</v>
@@ -5078,7 +5092,7 @@
         <v>22</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>22</v>
@@ -5089,10 +5103,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5115,13 +5129,13 @@
         <v>22</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -5172,7 +5186,7 @@
         <v>22</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>89</v>
@@ -5190,7 +5204,7 @@
         <v>22</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>22</v>
@@ -5201,10 +5215,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5227,16 +5241,16 @@
         <v>90</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -5262,11 +5276,11 @@
         <v>22</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Y26" s="2"/>
       <c r="Z26" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>22</v>
@@ -5284,7 +5298,7 @@
         <v>22</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>80</v>
@@ -5299,24 +5313,24 @@
         <v>101</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5324,7 +5338,7 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>89</v>
@@ -5339,13 +5353,13 @@
         <v>90</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -5357,7 +5371,7 @@
         <v>22</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>22</v>
+        <v>229</v>
       </c>
       <c r="T27" t="s" s="2">
         <v>22</v>
@@ -5372,11 +5386,11 @@
         <v>22</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Y27" s="2"/>
       <c r="Z27" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>22</v>
@@ -5394,7 +5408,7 @@
         <v>22</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
@@ -5409,24 +5423,24 @@
         <v>101</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>22</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5449,13 +5463,13 @@
         <v>22</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -5482,31 +5496,31 @@
         <v>22</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Y28" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="Z28" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="AA28" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AE28" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AF28" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="Z28" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="AA28" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="AB28" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="AC28" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="AD28" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="AE28" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="AF28" t="s" s="2">
-        <v>230</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>80</v>
@@ -5524,29 +5538,29 @@
         <v>22</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>89</v>
@@ -5561,16 +5575,16 @@
         <v>90</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5620,7 +5634,7 @@
         <v>22</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>80</v>
@@ -5635,24 +5649,24 @@
         <v>101</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5660,13 +5674,13 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>22</v>
@@ -5675,13 +5689,13 @@
         <v>90</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -5732,7 +5746,7 @@
         <v>22</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
@@ -5747,28 +5761,28 @@
         <v>101</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
@@ -5787,13 +5801,13 @@
         <v>22</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5844,7 +5858,7 @@
         <v>22</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
@@ -5859,10 +5873,10 @@
         <v>101</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>22</v>
@@ -5873,10 +5887,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5899,13 +5913,13 @@
         <v>90</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5944,17 +5958,17 @@
         <v>22</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="AC32" s="2"/>
       <c r="AD32" t="s" s="2">
         <v>22</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
@@ -5969,24 +5983,24 @@
         <v>101</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>22</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6009,13 +6023,13 @@
         <v>22</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -6066,7 +6080,7 @@
         <v>22</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
@@ -6084,7 +6098,7 @@
         <v>22</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>22</v>
@@ -6095,10 +6109,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6127,7 +6141,7 @@
         <v>136</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="N34" t="s" s="2">
         <v>138</v>
@@ -6180,7 +6194,7 @@
         <v>22</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
@@ -6198,7 +6212,7 @@
         <v>22</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>22</v>
@@ -6209,14 +6223,14 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
@@ -6238,10 +6252,10 @@
         <v>135</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="N35" t="s" s="2">
         <v>138</v>
@@ -6296,7 +6310,7 @@
         <v>22</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
@@ -6325,10 +6339,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6351,16 +6365,16 @@
         <v>90</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -6386,11 +6400,11 @@
         <v>22</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Y36" s="2"/>
       <c r="Z36" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>22</v>
@@ -6408,7 +6422,7 @@
         <v>22</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
@@ -6423,24 +6437,24 @@
         <v>101</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>22</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6463,13 +6477,13 @@
         <v>22</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -6520,7 +6534,7 @@
         <v>22</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
@@ -6538,21 +6552,21 @@
         <v>22</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>22</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6575,13 +6589,13 @@
         <v>90</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6632,7 +6646,7 @@
         <v>22</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
@@ -6647,27 +6661,27 @@
         <v>101</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C39" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D39" t="s" s="2">
         <v>22</v>
@@ -6689,13 +6703,13 @@
         <v>90</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6746,7 +6760,7 @@
         <v>22</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
@@ -6761,24 +6775,24 @@
         <v>101</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>22</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6801,13 +6815,13 @@
         <v>22</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6858,7 +6872,7 @@
         <v>22</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
@@ -6876,7 +6890,7 @@
         <v>22</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>22</v>
@@ -6887,10 +6901,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6919,7 +6933,7 @@
         <v>136</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="N41" t="s" s="2">
         <v>138</v>
@@ -6972,7 +6986,7 @@
         <v>22</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
@@ -6990,7 +7004,7 @@
         <v>22</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>22</v>
@@ -7001,14 +7015,14 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -7030,10 +7044,10 @@
         <v>135</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="N42" t="s" s="2">
         <v>138</v>
@@ -7088,7 +7102,7 @@
         <v>22</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
@@ -7117,10 +7131,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7143,16 +7157,16 @@
         <v>90</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -7163,7 +7177,7 @@
         <v>22</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="T43" t="s" s="2">
         <v>22</v>
@@ -7178,11 +7192,11 @@
         <v>22</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Y43" s="2"/>
       <c r="Z43" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>22</v>
@@ -7200,7 +7214,7 @@
         <v>22</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
@@ -7215,24 +7229,24 @@
         <v>101</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>22</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7255,13 +7269,13 @@
         <v>22</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -7312,7 +7326,7 @@
         <v>22</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
@@ -7330,21 +7344,21 @@
         <v>22</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>22</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7367,13 +7381,13 @@
         <v>90</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -7424,7 +7438,7 @@
         <v>22</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
@@ -7439,27 +7453,27 @@
         <v>101</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C46" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D46" t="s" s="2">
         <v>22</v>
@@ -7481,13 +7495,13 @@
         <v>90</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7538,7 +7552,7 @@
         <v>22</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
@@ -7553,24 +7567,24 @@
         <v>101</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>22</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7593,13 +7607,13 @@
         <v>22</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7650,7 +7664,7 @@
         <v>22</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
@@ -7668,7 +7682,7 @@
         <v>22</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>22</v>
@@ -7679,10 +7693,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7708,10 +7722,10 @@
         <v>135</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7750,17 +7764,17 @@
         <v>22</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="AC48" s="2"/>
       <c r="AD48" t="s" s="2">
         <v>22</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
@@ -7789,13 +7803,13 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C49" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D49" t="s" s="2">
         <v>22</v>
@@ -7817,13 +7831,13 @@
         <v>22</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7874,7 +7888,7 @@
         <v>22</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
@@ -7883,7 +7897,7 @@
         <v>81</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>140</v>
@@ -7903,14 +7917,14 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -7932,10 +7946,10 @@
         <v>135</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="N50" t="s" s="2">
         <v>138</v>
@@ -7990,7 +8004,7 @@
         <v>22</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
@@ -8019,10 +8033,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8045,16 +8059,16 @@
         <v>90</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -8065,7 +8079,7 @@
         <v>22</v>
       </c>
       <c r="S51" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="T51" t="s" s="2">
         <v>22</v>
@@ -8080,11 +8094,11 @@
         <v>22</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Y51" s="2"/>
       <c r="Z51" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>22</v>
@@ -8102,7 +8116,7 @@
         <v>22</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
@@ -8117,24 +8131,24 @@
         <v>101</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>22</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8157,13 +8171,13 @@
         <v>22</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -8214,7 +8228,7 @@
         <v>22</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
@@ -8232,21 +8246,21 @@
         <v>22</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>22</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8269,13 +8283,13 @@
         <v>22</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -8326,7 +8340,7 @@
         <v>22</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
@@ -8344,7 +8358,7 @@
         <v>22</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>22</v>
@@ -8355,10 +8369,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8387,7 +8401,7 @@
         <v>136</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="N54" t="s" s="2">
         <v>138</v>
@@ -8428,19 +8442,19 @@
         <v>22</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="AC54" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="AD54" t="s" s="2">
         <v>22</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
@@ -8458,7 +8472,7 @@
         <v>22</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>22</v>
@@ -8469,10 +8483,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8495,16 +8509,16 @@
         <v>90</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -8554,7 +8568,7 @@
         <v>22</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
@@ -8563,7 +8577,7 @@
         <v>89</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>101</v>
@@ -8572,21 +8586,21 @@
         <v>22</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>22</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8609,23 +8623,23 @@
         <v>90</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>22</v>
       </c>
       <c r="Q56" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="R56" t="s" s="2">
         <v>22</v>
@@ -8670,7 +8684,7 @@
         <v>22</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
@@ -8679,7 +8693,7 @@
         <v>89</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>101</v>
@@ -8688,21 +8702,21 @@
         <v>22</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>22</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8725,13 +8739,13 @@
         <v>90</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -8782,7 +8796,7 @@
         <v>22</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
@@ -8797,24 +8811,24 @@
         <v>101</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8837,13 +8851,13 @@
         <v>90</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8894,7 +8908,7 @@
         <v>22</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>80</v>
@@ -8909,24 +8923,24 @@
         <v>101</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>22</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8934,7 +8948,7 @@
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>89</v>
@@ -8949,16 +8963,16 @@
         <v>22</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -9008,7 +9022,7 @@
         <v>22</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>80</v>
@@ -9023,24 +9037,24 @@
         <v>101</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9063,13 +9077,13 @@
         <v>22</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -9120,7 +9134,7 @@
         <v>22</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>80</v>
@@ -9138,7 +9152,7 @@
         <v>22</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>22</v>
@@ -9149,10 +9163,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9181,7 +9195,7 @@
         <v>136</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="N61" t="s" s="2">
         <v>138</v>
@@ -9222,19 +9236,19 @@
         <v>22</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="AC61" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="AD61" t="s" s="2">
         <v>22</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
@@ -9252,7 +9266,7 @@
         <v>22</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>22</v>
@@ -9263,10 +9277,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9274,7 +9288,7 @@
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>89</v>
@@ -9289,16 +9303,16 @@
         <v>90</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -9348,7 +9362,7 @@
         <v>22</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
@@ -9357,7 +9371,7 @@
         <v>89</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>101</v>
@@ -9366,21 +9380,21 @@
         <v>22</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>22</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9403,23 +9417,23 @@
         <v>90</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>22</v>
       </c>
       <c r="Q63" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="R63" t="s" s="2">
         <v>22</v>
@@ -9464,7 +9478,7 @@
         <v>22</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>80</v>
@@ -9473,7 +9487,7 @@
         <v>89</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>101</v>
@@ -9482,21 +9496,21 @@
         <v>22</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>22</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9519,16 +9533,16 @@
         <v>22</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -9578,7 +9592,7 @@
         <v>22</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>80</v>
@@ -9593,28 +9607,28 @@
         <v>101</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>22</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
@@ -9633,16 +9647,16 @@
         <v>90</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -9671,10 +9685,10 @@
         <v>113</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>22</v>
@@ -9692,7 +9706,7 @@
         <v>22</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>80</v>
@@ -9707,28 +9721,28 @@
         <v>101</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
@@ -9747,16 +9761,16 @@
         <v>90</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
@@ -9806,7 +9820,7 @@
         <v>22</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>80</v>
@@ -9821,24 +9835,24 @@
         <v>101</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9846,7 +9860,7 @@
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>81</v>
@@ -9861,13 +9875,13 @@
         <v>90</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -9906,17 +9920,17 @@
         <v>22</v>
       </c>
       <c r="AB67" t="s" s="2">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="AC67" s="2"/>
       <c r="AD67" t="s" s="2">
         <v>22</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>80</v>
@@ -9934,7 +9948,7 @@
         <v>22</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>22</v>
@@ -9945,10 +9959,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9971,13 +9985,13 @@
         <v>22</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -10028,7 +10042,7 @@
         <v>22</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>80</v>
@@ -10046,7 +10060,7 @@
         <v>22</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>22</v>
@@ -10057,10 +10071,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10089,7 +10103,7 @@
         <v>136</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="N69" t="s" s="2">
         <v>138</v>
@@ -10142,7 +10156,7 @@
         <v>22</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>80</v>
@@ -10160,7 +10174,7 @@
         <v>22</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>22</v>
@@ -10171,14 +10185,14 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
@@ -10200,10 +10214,10 @@
         <v>135</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="N70" t="s" s="2">
         <v>138</v>
@@ -10258,7 +10272,7 @@
         <v>22</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>80</v>
@@ -10287,14 +10301,14 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
@@ -10313,16 +10327,16 @@
         <v>90</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -10372,7 +10386,7 @@
         <v>22</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>89</v>
@@ -10387,24 +10401,24 @@
         <v>101</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>403</v>
+        <v>405</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10427,13 +10441,13 @@
         <v>22</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -10463,10 +10477,10 @@
         <v>113</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>22</v>
@@ -10484,7 +10498,7 @@
         <v>22</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>80</v>
@@ -10502,7 +10516,7 @@
         <v>22</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>22</v>
@@ -10513,10 +10527,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10539,13 +10553,13 @@
         <v>22</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -10596,7 +10610,7 @@
         <v>22</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>80</v>
@@ -10614,7 +10628,7 @@
         <v>22</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>22</v>
@@ -10625,13 +10639,13 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C74" t="s" s="2">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="D74" t="s" s="2">
         <v>22</v>
@@ -10653,13 +10667,13 @@
         <v>90</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -10710,7 +10724,7 @@
         <v>22</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>80</v>
@@ -10728,7 +10742,7 @@
         <v>22</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>22</v>
@@ -10739,10 +10753,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10765,13 +10779,13 @@
         <v>22</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
@@ -10822,7 +10836,7 @@
         <v>22</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>80</v>
@@ -10840,7 +10854,7 @@
         <v>22</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>22</v>
@@ -10851,10 +10865,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10883,7 +10897,7 @@
         <v>136</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="N76" t="s" s="2">
         <v>138</v>
@@ -10936,7 +10950,7 @@
         <v>22</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>80</v>
@@ -10954,7 +10968,7 @@
         <v>22</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>22</v>
@@ -10965,14 +10979,14 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
@@ -10994,10 +11008,10 @@
         <v>135</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="N77" t="s" s="2">
         <v>138</v>
@@ -11052,7 +11066,7 @@
         <v>22</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>80</v>
@@ -11081,14 +11095,14 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
@@ -11107,16 +11121,16 @@
         <v>90</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
@@ -11166,7 +11180,7 @@
         <v>22</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>89</v>
@@ -11181,24 +11195,24 @@
         <v>101</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>403</v>
+        <v>405</v>
       </c>
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11221,13 +11235,13 @@
         <v>22</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -11239,7 +11253,7 @@
         <v>22</v>
       </c>
       <c r="S79" t="s" s="2">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="T79" t="s" s="2">
         <v>22</v>
@@ -11257,10 +11271,10 @@
         <v>113</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="Z79" t="s" s="2">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="AA79" t="s" s="2">
         <v>22</v>
@@ -11278,7 +11292,7 @@
         <v>22</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>80</v>
@@ -11296,7 +11310,7 @@
         <v>22</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>22</v>
@@ -11307,10 +11321,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11333,13 +11347,13 @@
         <v>22</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -11390,7 +11404,7 @@
         <v>22</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>80</v>
@@ -11408,7 +11422,7 @@
         <v>22</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>22</v>
@@ -11419,13 +11433,13 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C81" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="D81" t="s" s="2">
         <v>22</v>
@@ -11447,13 +11461,13 @@
         <v>90</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
@@ -11504,7 +11518,7 @@
         <v>22</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>80</v>
@@ -11522,7 +11536,7 @@
         <v>22</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>22</v>
@@ -11533,10 +11547,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11559,13 +11573,13 @@
         <v>22</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" s="2"/>
@@ -11616,7 +11630,7 @@
         <v>22</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>80</v>
@@ -11634,7 +11648,7 @@
         <v>22</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>22</v>
@@ -11645,10 +11659,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11677,7 +11691,7 @@
         <v>136</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="N83" t="s" s="2">
         <v>138</v>
@@ -11730,7 +11744,7 @@
         <v>22</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>80</v>
@@ -11748,7 +11762,7 @@
         <v>22</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>22</v>
@@ -11759,14 +11773,14 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
@@ -11788,10 +11802,10 @@
         <v>135</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="N84" t="s" s="2">
         <v>138</v>
@@ -11846,7 +11860,7 @@
         <v>22</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>80</v>
@@ -11875,14 +11889,14 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" t="s" s="2">
@@ -11901,16 +11915,16 @@
         <v>90</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
@@ -11960,7 +11974,7 @@
         <v>22</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>89</v>
@@ -11975,24 +11989,24 @@
         <v>101</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>403</v>
+        <v>405</v>
       </c>
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12015,13 +12029,13 @@
         <v>22</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" s="2"/>
@@ -12033,7 +12047,7 @@
         <v>22</v>
       </c>
       <c r="S86" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="T86" t="s" s="2">
         <v>22</v>
@@ -12051,10 +12065,10 @@
         <v>113</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="Z86" t="s" s="2">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="AA86" t="s" s="2">
         <v>22</v>
@@ -12072,7 +12086,7 @@
         <v>22</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>80</v>
@@ -12090,7 +12104,7 @@
         <v>22</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>22</v>
@@ -12101,10 +12115,10 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12127,13 +12141,13 @@
         <v>22</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
@@ -12184,7 +12198,7 @@
         <v>22</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>80</v>
@@ -12202,7 +12216,7 @@
         <v>22</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>22</v>
@@ -12213,13 +12227,13 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C88" t="s" s="2">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="D88" t="s" s="2">
         <v>22</v>
@@ -12241,13 +12255,13 @@
         <v>90</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" s="2"/>
@@ -12298,7 +12312,7 @@
         <v>22</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>80</v>
@@ -12316,7 +12330,7 @@
         <v>22</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>22</v>
@@ -12327,10 +12341,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12353,13 +12367,13 @@
         <v>22</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" s="2"/>
@@ -12410,7 +12424,7 @@
         <v>22</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>80</v>
@@ -12428,7 +12442,7 @@
         <v>22</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>22</v>
@@ -12439,10 +12453,10 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12471,7 +12485,7 @@
         <v>136</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="N90" t="s" s="2">
         <v>138</v>
@@ -12524,7 +12538,7 @@
         <v>22</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>80</v>
@@ -12542,7 +12556,7 @@
         <v>22</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>22</v>
@@ -12553,14 +12567,14 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" t="s" s="2">
@@ -12582,10 +12596,10 @@
         <v>135</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="N91" t="s" s="2">
         <v>138</v>
@@ -12640,7 +12654,7 @@
         <v>22</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>80</v>
@@ -12669,14 +12683,14 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" t="s" s="2">
@@ -12695,16 +12709,16 @@
         <v>90</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
@@ -12754,7 +12768,7 @@
         <v>22</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>89</v>
@@ -12769,24 +12783,24 @@
         <v>101</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>403</v>
+        <v>405</v>
       </c>
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -12809,13 +12823,13 @@
         <v>22</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" s="2"/>
@@ -12827,7 +12841,7 @@
         <v>22</v>
       </c>
       <c r="S93" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="T93" t="s" s="2">
         <v>22</v>
@@ -12845,10 +12859,10 @@
         <v>113</v>
       </c>
       <c r="Y93" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="Z93" t="s" s="2">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="AA93" t="s" s="2">
         <v>22</v>
@@ -12866,7 +12880,7 @@
         <v>22</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>80</v>
@@ -12884,7 +12898,7 @@
         <v>22</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AM93" t="s" s="2">
         <v>22</v>
@@ -12895,10 +12909,10 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -12921,13 +12935,13 @@
         <v>22</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" s="2"/>
@@ -12978,7 +12992,7 @@
         <v>22</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>80</v>
@@ -12996,7 +13010,7 @@
         <v>22</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="AM94" t="s" s="2">
         <v>22</v>
@@ -13007,13 +13021,13 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C95" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D95" t="s" s="2">
         <v>22</v>
@@ -13035,13 +13049,13 @@
         <v>90</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" s="2"/>
@@ -13092,7 +13106,7 @@
         <v>22</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>80</v>
@@ -13110,7 +13124,7 @@
         <v>22</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="AM95" t="s" s="2">
         <v>22</v>
@@ -13121,10 +13135,10 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13147,13 +13161,13 @@
         <v>22</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N96" s="2"/>
       <c r="O96" s="2"/>
@@ -13204,7 +13218,7 @@
         <v>22</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>80</v>
@@ -13222,7 +13236,7 @@
         <v>22</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AM96" t="s" s="2">
         <v>22</v>
@@ -13233,10 +13247,10 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -13265,7 +13279,7 @@
         <v>136</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="N97" t="s" s="2">
         <v>138</v>
@@ -13318,7 +13332,7 @@
         <v>22</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>80</v>
@@ -13336,7 +13350,7 @@
         <v>22</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AM97" t="s" s="2">
         <v>22</v>
@@ -13347,14 +13361,14 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98" t="s" s="2">
@@ -13376,10 +13390,10 @@
         <v>135</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="N98" t="s" s="2">
         <v>138</v>
@@ -13434,7 +13448,7 @@
         <v>22</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>80</v>
@@ -13463,14 +13477,14 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="E99" s="2"/>
       <c r="F99" t="s" s="2">
@@ -13489,16 +13503,16 @@
         <v>90</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="O99" s="2"/>
       <c r="P99" t="s" s="2">
@@ -13548,7 +13562,7 @@
         <v>22</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>89</v>
@@ -13563,24 +13577,24 @@
         <v>101</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>403</v>
+        <v>405</v>
       </c>
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -13603,13 +13617,13 @@
         <v>22</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" s="2"/>
@@ -13621,7 +13635,7 @@
         <v>22</v>
       </c>
       <c r="S100" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="T100" t="s" s="2">
         <v>22</v>
@@ -13639,10 +13653,10 @@
         <v>113</v>
       </c>
       <c r="Y100" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="Z100" t="s" s="2">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="AA100" t="s" s="2">
         <v>22</v>
@@ -13660,7 +13674,7 @@
         <v>22</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>80</v>
@@ -13678,7 +13692,7 @@
         <v>22</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AM100" t="s" s="2">
         <v>22</v>
@@ -13689,10 +13703,10 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -13715,13 +13729,13 @@
         <v>22</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="N101" s="2"/>
       <c r="O101" s="2"/>
@@ -13772,7 +13786,7 @@
         <v>22</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>80</v>
@@ -13790,7 +13804,7 @@
         <v>22</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="AM101" t="s" s="2">
         <v>22</v>
@@ -13801,13 +13815,13 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C102" t="s" s="2">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="D102" t="s" s="2">
         <v>22</v>
@@ -13829,13 +13843,13 @@
         <v>90</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="N102" s="2"/>
       <c r="O102" s="2"/>
@@ -13886,7 +13900,7 @@
         <v>22</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>80</v>
@@ -13904,7 +13918,7 @@
         <v>22</v>
       </c>
       <c r="AL102" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="AM102" t="s" s="2">
         <v>22</v>
@@ -13915,10 +13929,10 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -13941,13 +13955,13 @@
         <v>22</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N103" s="2"/>
       <c r="O103" s="2"/>
@@ -13998,7 +14012,7 @@
         <v>22</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>80</v>
@@ -14016,7 +14030,7 @@
         <v>22</v>
       </c>
       <c r="AL103" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AM103" t="s" s="2">
         <v>22</v>
@@ -14027,10 +14041,10 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -14059,7 +14073,7 @@
         <v>136</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="N104" t="s" s="2">
         <v>138</v>
@@ -14112,7 +14126,7 @@
         <v>22</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>80</v>
@@ -14130,7 +14144,7 @@
         <v>22</v>
       </c>
       <c r="AL104" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AM104" t="s" s="2">
         <v>22</v>
@@ -14141,14 +14155,14 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E105" s="2"/>
       <c r="F105" t="s" s="2">
@@ -14170,10 +14184,10 @@
         <v>135</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="N105" t="s" s="2">
         <v>138</v>
@@ -14228,7 +14242,7 @@
         <v>22</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>80</v>
@@ -14257,14 +14271,14 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="E106" s="2"/>
       <c r="F106" t="s" s="2">
@@ -14283,16 +14297,16 @@
         <v>90</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="N106" t="s" s="2">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="O106" s="2"/>
       <c r="P106" t="s" s="2">
@@ -14342,7 +14356,7 @@
         <v>22</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>89</v>
@@ -14357,24 +14371,24 @@
         <v>101</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="AM106" t="s" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="AN106" t="s" s="2">
-        <v>403</v>
+        <v>405</v>
       </c>
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -14397,13 +14411,13 @@
         <v>22</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="N107" s="2"/>
       <c r="O107" s="2"/>
@@ -14415,7 +14429,7 @@
         <v>22</v>
       </c>
       <c r="S107" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="T107" t="s" s="2">
         <v>22</v>
@@ -14433,10 +14447,10 @@
         <v>113</v>
       </c>
       <c r="Y107" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="Z107" t="s" s="2">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="AA107" t="s" s="2">
         <v>22</v>
@@ -14454,7 +14468,7 @@
         <v>22</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>80</v>
@@ -14472,7 +14486,7 @@
         <v>22</v>
       </c>
       <c r="AL107" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AM107" t="s" s="2">
         <v>22</v>
@@ -14483,10 +14497,10 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -14509,13 +14523,13 @@
         <v>22</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="N108" s="2"/>
       <c r="O108" s="2"/>
@@ -14566,7 +14580,7 @@
         <v>22</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>80</v>
@@ -14584,7 +14598,7 @@
         <v>22</v>
       </c>
       <c r="AL108" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="AM108" t="s" s="2">
         <v>22</v>
@@ -14595,13 +14609,13 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C109" t="s" s="2">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="D109" t="s" s="2">
         <v>22</v>
@@ -14623,13 +14637,13 @@
         <v>90</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="N109" s="2"/>
       <c r="O109" s="2"/>
@@ -14680,7 +14694,7 @@
         <v>22</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>80</v>
@@ -14698,7 +14712,7 @@
         <v>22</v>
       </c>
       <c r="AL109" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="AM109" t="s" s="2">
         <v>22</v>
@@ -14709,10 +14723,10 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -14735,13 +14749,13 @@
         <v>22</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N110" s="2"/>
       <c r="O110" s="2"/>
@@ -14792,7 +14806,7 @@
         <v>22</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>80</v>
@@ -14810,7 +14824,7 @@
         <v>22</v>
       </c>
       <c r="AL110" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AM110" t="s" s="2">
         <v>22</v>
@@ -14821,10 +14835,10 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -14853,7 +14867,7 @@
         <v>136</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="N111" t="s" s="2">
         <v>138</v>
@@ -14906,7 +14920,7 @@
         <v>22</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>80</v>
@@ -14924,7 +14938,7 @@
         <v>22</v>
       </c>
       <c r="AL111" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AM111" t="s" s="2">
         <v>22</v>
@@ -14935,14 +14949,14 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E112" s="2"/>
       <c r="F112" t="s" s="2">
@@ -14964,10 +14978,10 @@
         <v>135</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="N112" t="s" s="2">
         <v>138</v>
@@ -15022,7 +15036,7 @@
         <v>22</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>80</v>
@@ -15051,14 +15065,14 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="E113" s="2"/>
       <c r="F113" t="s" s="2">
@@ -15077,16 +15091,16 @@
         <v>90</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="O113" s="2"/>
       <c r="P113" t="s" s="2">
@@ -15136,7 +15150,7 @@
         <v>22</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>89</v>
@@ -15151,24 +15165,24 @@
         <v>101</v>
       </c>
       <c r="AK113" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="AL113" t="s" s="2">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="AM113" t="s" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="AN113" t="s" s="2">
-        <v>403</v>
+        <v>405</v>
       </c>
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -15191,13 +15205,13 @@
         <v>22</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="N114" s="2"/>
       <c r="O114" s="2"/>
@@ -15209,7 +15223,7 @@
         <v>22</v>
       </c>
       <c r="S114" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="T114" t="s" s="2">
         <v>22</v>
@@ -15227,10 +15241,10 @@
         <v>113</v>
       </c>
       <c r="Y114" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="Z114" t="s" s="2">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="AA114" t="s" s="2">
         <v>22</v>
@@ -15248,7 +15262,7 @@
         <v>22</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>80</v>
@@ -15266,7 +15280,7 @@
         <v>22</v>
       </c>
       <c r="AL114" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AM114" t="s" s="2">
         <v>22</v>
@@ -15277,10 +15291,10 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -15303,13 +15317,13 @@
         <v>22</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="N115" s="2"/>
       <c r="O115" s="2"/>
@@ -15360,7 +15374,7 @@
         <v>22</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>80</v>
@@ -15378,7 +15392,7 @@
         <v>22</v>
       </c>
       <c r="AL115" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="AM115" t="s" s="2">
         <v>22</v>
@@ -15389,13 +15403,13 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C116" t="s" s="2">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="D116" t="s" s="2">
         <v>22</v>
@@ -15417,13 +15431,13 @@
         <v>90</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="N116" s="2"/>
       <c r="O116" s="2"/>
@@ -15474,7 +15488,7 @@
         <v>22</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>80</v>
@@ -15492,7 +15506,7 @@
         <v>22</v>
       </c>
       <c r="AL116" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="AM116" t="s" s="2">
         <v>22</v>
@@ -15503,10 +15517,10 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -15529,13 +15543,13 @@
         <v>22</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N117" s="2"/>
       <c r="O117" s="2"/>
@@ -15586,7 +15600,7 @@
         <v>22</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>80</v>
@@ -15604,7 +15618,7 @@
         <v>22</v>
       </c>
       <c r="AL117" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AM117" t="s" s="2">
         <v>22</v>
@@ -15615,10 +15629,10 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
@@ -15647,7 +15661,7 @@
         <v>136</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="N118" t="s" s="2">
         <v>138</v>
@@ -15700,7 +15714,7 @@
         <v>22</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>80</v>
@@ -15718,7 +15732,7 @@
         <v>22</v>
       </c>
       <c r="AL118" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AM118" t="s" s="2">
         <v>22</v>
@@ -15729,14 +15743,14 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E119" s="2"/>
       <c r="F119" t="s" s="2">
@@ -15758,10 +15772,10 @@
         <v>135</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="N119" t="s" s="2">
         <v>138</v>
@@ -15816,7 +15830,7 @@
         <v>22</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>80</v>
@@ -15845,14 +15859,14 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="E120" s="2"/>
       <c r="F120" t="s" s="2">
@@ -15871,16 +15885,16 @@
         <v>90</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="N120" t="s" s="2">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="O120" s="2"/>
       <c r="P120" t="s" s="2">
@@ -15930,7 +15944,7 @@
         <v>22</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>89</v>
@@ -15945,24 +15959,24 @@
         <v>101</v>
       </c>
       <c r="AK120" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="AL120" t="s" s="2">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="AM120" t="s" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="AN120" t="s" s="2">
-        <v>403</v>
+        <v>405</v>
       </c>
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
@@ -15985,13 +15999,13 @@
         <v>22</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="N121" s="2"/>
       <c r="O121" s="2"/>
@@ -16003,7 +16017,7 @@
         <v>22</v>
       </c>
       <c r="S121" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="T121" t="s" s="2">
         <v>22</v>
@@ -16021,10 +16035,10 @@
         <v>113</v>
       </c>
       <c r="Y121" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="Z121" t="s" s="2">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="AA121" t="s" s="2">
         <v>22</v>
@@ -16042,7 +16056,7 @@
         <v>22</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>80</v>
@@ -16060,7 +16074,7 @@
         <v>22</v>
       </c>
       <c r="AL121" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AM121" t="s" s="2">
         <v>22</v>
@@ -16071,10 +16085,10 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -16097,13 +16111,13 @@
         <v>22</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="N122" s="2"/>
       <c r="O122" s="2"/>
@@ -16154,7 +16168,7 @@
         <v>22</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>80</v>
@@ -16172,7 +16186,7 @@
         <v>22</v>
       </c>
       <c r="AL122" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="AM122" t="s" s="2">
         <v>22</v>
@@ -16183,13 +16197,13 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C123" t="s" s="2">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="D123" t="s" s="2">
         <v>22</v>
@@ -16211,13 +16225,13 @@
         <v>90</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="N123" s="2"/>
       <c r="O123" s="2"/>
@@ -16268,7 +16282,7 @@
         <v>22</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="AG123" t="s" s="2">
         <v>80</v>
@@ -16286,7 +16300,7 @@
         <v>22</v>
       </c>
       <c r="AL123" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="AM123" t="s" s="2">
         <v>22</v>
@@ -16297,10 +16311,10 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -16323,13 +16337,13 @@
         <v>22</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N124" s="2"/>
       <c r="O124" s="2"/>
@@ -16380,7 +16394,7 @@
         <v>22</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AG124" t="s" s="2">
         <v>80</v>
@@ -16398,7 +16412,7 @@
         <v>22</v>
       </c>
       <c r="AL124" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AM124" t="s" s="2">
         <v>22</v>
@@ -16409,10 +16423,10 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
@@ -16441,7 +16455,7 @@
         <v>136</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="N125" t="s" s="2">
         <v>138</v>
@@ -16494,7 +16508,7 @@
         <v>22</v>
       </c>
       <c r="AF125" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AG125" t="s" s="2">
         <v>80</v>
@@ -16512,7 +16526,7 @@
         <v>22</v>
       </c>
       <c r="AL125" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AM125" t="s" s="2">
         <v>22</v>
@@ -16523,14 +16537,14 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E126" s="2"/>
       <c r="F126" t="s" s="2">
@@ -16552,10 +16566,10 @@
         <v>135</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="N126" t="s" s="2">
         <v>138</v>
@@ -16610,7 +16624,7 @@
         <v>22</v>
       </c>
       <c r="AF126" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AG126" t="s" s="2">
         <v>80</v>
@@ -16639,14 +16653,14 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="E127" s="2"/>
       <c r="F127" t="s" s="2">
@@ -16665,16 +16679,16 @@
         <v>90</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="N127" t="s" s="2">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="O127" s="2"/>
       <c r="P127" t="s" s="2">
@@ -16724,7 +16738,7 @@
         <v>22</v>
       </c>
       <c r="AF127" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="AG127" t="s" s="2">
         <v>89</v>
@@ -16739,24 +16753,24 @@
         <v>101</v>
       </c>
       <c r="AK127" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="AL127" t="s" s="2">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="AM127" t="s" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="AN127" t="s" s="2">
-        <v>403</v>
+        <v>405</v>
       </c>
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
@@ -16779,13 +16793,13 @@
         <v>22</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="N128" s="2"/>
       <c r="O128" s="2"/>
@@ -16797,7 +16811,7 @@
         <v>22</v>
       </c>
       <c r="S128" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="T128" t="s" s="2">
         <v>22</v>
@@ -16815,10 +16829,10 @@
         <v>113</v>
       </c>
       <c r="Y128" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="Z128" t="s" s="2">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="AA128" t="s" s="2">
         <v>22</v>
@@ -16836,7 +16850,7 @@
         <v>22</v>
       </c>
       <c r="AF128" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="AG128" t="s" s="2">
         <v>80</v>
@@ -16854,7 +16868,7 @@
         <v>22</v>
       </c>
       <c r="AL128" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AM128" t="s" s="2">
         <v>22</v>
@@ -16865,10 +16879,10 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
@@ -16891,13 +16905,13 @@
         <v>22</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="N129" s="2"/>
       <c r="O129" s="2"/>
@@ -16948,7 +16962,7 @@
         <v>22</v>
       </c>
       <c r="AF129" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="AG129" t="s" s="2">
         <v>80</v>
@@ -16966,7 +16980,7 @@
         <v>22</v>
       </c>
       <c r="AL129" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="AM129" t="s" s="2">
         <v>22</v>
@@ -16977,13 +16991,13 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C130" t="s" s="2">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="D130" t="s" s="2">
         <v>22</v>
@@ -17005,13 +17019,13 @@
         <v>90</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="N130" s="2"/>
       <c r="O130" s="2"/>
@@ -17062,7 +17076,7 @@
         <v>22</v>
       </c>
       <c r="AF130" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="AG130" t="s" s="2">
         <v>80</v>
@@ -17080,7 +17094,7 @@
         <v>22</v>
       </c>
       <c r="AL130" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="AM130" t="s" s="2">
         <v>22</v>
@@ -17091,10 +17105,10 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" t="s" s="2">
@@ -17117,13 +17131,13 @@
         <v>22</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N131" s="2"/>
       <c r="O131" s="2"/>
@@ -17174,7 +17188,7 @@
         <v>22</v>
       </c>
       <c r="AF131" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AG131" t="s" s="2">
         <v>80</v>
@@ -17192,7 +17206,7 @@
         <v>22</v>
       </c>
       <c r="AL131" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AM131" t="s" s="2">
         <v>22</v>
@@ -17203,10 +17217,10 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
@@ -17235,7 +17249,7 @@
         <v>136</v>
       </c>
       <c r="M132" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="N132" t="s" s="2">
         <v>138</v>
@@ -17288,7 +17302,7 @@
         <v>22</v>
       </c>
       <c r="AF132" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AG132" t="s" s="2">
         <v>80</v>
@@ -17306,7 +17320,7 @@
         <v>22</v>
       </c>
       <c r="AL132" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AM132" t="s" s="2">
         <v>22</v>
@@ -17317,14 +17331,14 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E133" s="2"/>
       <c r="F133" t="s" s="2">
@@ -17346,10 +17360,10 @@
         <v>135</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M133" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="N133" t="s" s="2">
         <v>138</v>
@@ -17404,7 +17418,7 @@
         <v>22</v>
       </c>
       <c r="AF133" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AG133" t="s" s="2">
         <v>80</v>
@@ -17433,14 +17447,14 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="E134" s="2"/>
       <c r="F134" t="s" s="2">
@@ -17459,16 +17473,16 @@
         <v>90</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="M134" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="N134" t="s" s="2">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="O134" s="2"/>
       <c r="P134" t="s" s="2">
@@ -17518,7 +17532,7 @@
         <v>22</v>
       </c>
       <c r="AF134" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="AG134" t="s" s="2">
         <v>89</v>
@@ -17533,24 +17547,24 @@
         <v>101</v>
       </c>
       <c r="AK134" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="AL134" t="s" s="2">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="AM134" t="s" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="AN134" t="s" s="2">
-        <v>403</v>
+        <v>405</v>
       </c>
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" t="s" s="2">
@@ -17573,13 +17587,13 @@
         <v>22</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="N135" s="2"/>
       <c r="O135" s="2"/>
@@ -17591,7 +17605,7 @@
         <v>22</v>
       </c>
       <c r="S135" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="T135" t="s" s="2">
         <v>22</v>
@@ -17609,10 +17623,10 @@
         <v>113</v>
       </c>
       <c r="Y135" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="Z135" t="s" s="2">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="AA135" t="s" s="2">
         <v>22</v>
@@ -17630,7 +17644,7 @@
         <v>22</v>
       </c>
       <c r="AF135" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="AG135" t="s" s="2">
         <v>80</v>
@@ -17648,7 +17662,7 @@
         <v>22</v>
       </c>
       <c r="AL135" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AM135" t="s" s="2">
         <v>22</v>
@@ -17659,10 +17673,10 @@
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" t="s" s="2">
@@ -17685,13 +17699,13 @@
         <v>22</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="M136" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="N136" s="2"/>
       <c r="O136" s="2"/>
@@ -17742,7 +17756,7 @@
         <v>22</v>
       </c>
       <c r="AF136" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="AG136" t="s" s="2">
         <v>80</v>
@@ -17760,7 +17774,7 @@
         <v>22</v>
       </c>
       <c r="AL136" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="AM136" t="s" s="2">
         <v>22</v>
@@ -17771,10 +17785,10 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
@@ -17797,16 +17811,16 @@
         <v>22</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="N137" t="s" s="2">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="O137" s="2"/>
       <c r="P137" t="s" s="2">
@@ -17856,7 +17870,7 @@
         <v>22</v>
       </c>
       <c r="AF137" t="s" s="2">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="AG137" t="s" s="2">
         <v>80</v>
@@ -17874,7 +17888,7 @@
         <v>22</v>
       </c>
       <c r="AL137" t="s" s="2">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="AM137" t="s" s="2">
         <v>22</v>
@@ -17885,10 +17899,10 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" t="s" s="2">
@@ -17911,16 +17925,16 @@
         <v>22</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="N138" t="s" s="2">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="O138" s="2"/>
       <c r="P138" t="s" s="2">
@@ -17970,7 +17984,7 @@
         <v>22</v>
       </c>
       <c r="AF138" t="s" s="2">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="AG138" t="s" s="2">
         <v>80</v>
@@ -17988,7 +18002,7 @@
         <v>22</v>
       </c>
       <c r="AL138" t="s" s="2">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="AM138" t="s" s="2">
         <v>22</v>
@@ -17999,10 +18013,10 @@
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" t="s" s="2">
@@ -18025,13 +18039,13 @@
         <v>22</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N139" s="2"/>
       <c r="O139" s="2"/>
@@ -18082,7 +18096,7 @@
         <v>22</v>
       </c>
       <c r="AF139" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AG139" t="s" s="2">
         <v>80</v>
@@ -18100,7 +18114,7 @@
         <v>22</v>
       </c>
       <c r="AL139" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AM139" t="s" s="2">
         <v>22</v>
@@ -18111,10 +18125,10 @@
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" t="s" s="2">
@@ -18143,7 +18157,7 @@
         <v>136</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="N140" t="s" s="2">
         <v>138</v>
@@ -18196,7 +18210,7 @@
         <v>22</v>
       </c>
       <c r="AF140" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AG140" t="s" s="2">
         <v>80</v>
@@ -18214,7 +18228,7 @@
         <v>22</v>
       </c>
       <c r="AL140" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AM140" t="s" s="2">
         <v>22</v>
@@ -18225,14 +18239,14 @@
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E141" s="2"/>
       <c r="F141" t="s" s="2">
@@ -18254,10 +18268,10 @@
         <v>135</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M141" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="N141" t="s" s="2">
         <v>138</v>
@@ -18312,7 +18326,7 @@
         <v>22</v>
       </c>
       <c r="AF141" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AG141" t="s" s="2">
         <v>80</v>
@@ -18341,10 +18355,10 @@
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" t="s" s="2">
@@ -18370,10 +18384,10 @@
         <v>147</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="M142" t="s" s="2">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="N142" s="2"/>
       <c r="O142" s="2"/>
@@ -18424,7 +18438,7 @@
         <v>22</v>
       </c>
       <c r="AF142" t="s" s="2">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="AG142" t="s" s="2">
         <v>80</v>
@@ -18448,15 +18462,15 @@
         <v>22</v>
       </c>
       <c r="AN142" t="s" s="2">
-        <v>525</v>
+        <v>527</v>
       </c>
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" t="s" s="2">
@@ -18479,13 +18493,13 @@
         <v>22</v>
       </c>
       <c r="K143" t="s" s="2">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="M143" t="s" s="2">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="N143" s="2"/>
       <c r="O143" s="2"/>
@@ -18536,7 +18550,7 @@
         <v>22</v>
       </c>
       <c r="AF143" t="s" s="2">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="AG143" t="s" s="2">
         <v>80</v>
@@ -18554,7 +18568,7 @@
         <v>22</v>
       </c>
       <c r="AL143" t="s" s="2">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="AM143" t="s" s="2">
         <v>22</v>
@@ -18565,10 +18579,10 @@
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" t="s" s="2">
@@ -18591,13 +18605,13 @@
         <v>22</v>
       </c>
       <c r="K144" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="M144" t="s" s="2">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="N144" s="2"/>
       <c r="O144" s="2"/>
@@ -18627,10 +18641,10 @@
         <v>113</v>
       </c>
       <c r="Y144" t="s" s="2">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="Z144" t="s" s="2">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="AA144" t="s" s="2">
         <v>22</v>
@@ -18648,7 +18662,7 @@
         <v>22</v>
       </c>
       <c r="AF144" t="s" s="2">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="AG144" t="s" s="2">
         <v>80</v>
@@ -18666,21 +18680,21 @@
         <v>22</v>
       </c>
       <c r="AL144" t="s" s="2">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="AM144" t="s" s="2">
         <v>22</v>
       </c>
       <c r="AN144" t="s" s="2">
-        <v>537</v>
+        <v>539</v>
       </c>
     </row>
     <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" t="s" s="2">
@@ -18703,13 +18717,13 @@
         <v>22</v>
       </c>
       <c r="K145" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="M145" t="s" s="2">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="N145" s="2"/>
       <c r="O145" s="2"/>
@@ -18736,13 +18750,13 @@
         <v>22</v>
       </c>
       <c r="X145" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Y145" t="s" s="2">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="Z145" t="s" s="2">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="AA145" t="s" s="2">
         <v>22</v>
@@ -18760,7 +18774,7 @@
         <v>22</v>
       </c>
       <c r="AF145" t="s" s="2">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="AG145" t="s" s="2">
         <v>80</v>
@@ -18778,21 +18792,21 @@
         <v>22</v>
       </c>
       <c r="AL145" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AM145" t="s" s="2">
         <v>22</v>
       </c>
       <c r="AN145" t="s" s="2">
-        <v>543</v>
+        <v>545</v>
       </c>
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" t="s" s="2">
@@ -18815,19 +18829,19 @@
         <v>22</v>
       </c>
       <c r="K146" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="M146" t="s" s="2">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="N146" t="s" s="2">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="O146" t="s" s="2">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="P146" t="s" s="2">
         <v>22</v>
@@ -18852,13 +18866,13 @@
         <v>22</v>
       </c>
       <c r="X146" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Y146" t="s" s="2">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="Z146" t="s" s="2">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="AA146" t="s" s="2">
         <v>22</v>
@@ -18876,7 +18890,7 @@
         <v>22</v>
       </c>
       <c r="AF146" t="s" s="2">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="AG146" t="s" s="2">
         <v>80</v>
@@ -18894,21 +18908,21 @@
         <v>22</v>
       </c>
       <c r="AL146" t="s" s="2">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="AM146" t="s" s="2">
         <v>22</v>
       </c>
       <c r="AN146" t="s" s="2">
-        <v>552</v>
+        <v>554</v>
       </c>
     </row>
     <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" t="s" s="2">
@@ -18931,13 +18945,13 @@
         <v>22</v>
       </c>
       <c r="K147" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="M147" t="s" s="2">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="N147" s="2"/>
       <c r="O147" s="2"/>
@@ -18967,10 +18981,10 @@
         <v>113</v>
       </c>
       <c r="Y147" t="s" s="2">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="Z147" t="s" s="2">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="AA147" t="s" s="2">
         <v>22</v>
@@ -18988,7 +19002,7 @@
         <v>22</v>
       </c>
       <c r="AF147" t="s" s="2">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="AG147" t="s" s="2">
         <v>80</v>
@@ -19006,21 +19020,21 @@
         <v>22</v>
       </c>
       <c r="AL147" t="s" s="2">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="AM147" t="s" s="2">
         <v>22</v>
       </c>
       <c r="AN147" t="s" s="2">
-        <v>559</v>
+        <v>561</v>
       </c>
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" t="s" s="2">
@@ -19043,13 +19057,13 @@
         <v>22</v>
       </c>
       <c r="K148" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="M148" t="s" s="2">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="N148" s="2"/>
       <c r="O148" s="2"/>
@@ -19079,10 +19093,10 @@
         <v>113</v>
       </c>
       <c r="Y148" t="s" s="2">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="Z148" t="s" s="2">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="AA148" t="s" s="2">
         <v>22</v>
@@ -19100,7 +19114,7 @@
         <v>22</v>
       </c>
       <c r="AF148" t="s" s="2">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="AG148" t="s" s="2">
         <v>80</v>
@@ -19118,21 +19132,21 @@
         <v>22</v>
       </c>
       <c r="AL148" t="s" s="2">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="AM148" t="s" s="2">
         <v>22</v>
       </c>
       <c r="AN148" t="s" s="2">
-        <v>566</v>
+        <v>568</v>
       </c>
     </row>
     <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" t="s" s="2">
@@ -19155,13 +19169,13 @@
         <v>22</v>
       </c>
       <c r="K149" t="s" s="2">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="L149" t="s" s="2">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="M149" t="s" s="2">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="N149" s="2"/>
       <c r="O149" s="2"/>
@@ -19212,7 +19226,7 @@
         <v>22</v>
       </c>
       <c r="AF149" t="s" s="2">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="AG149" t="s" s="2">
         <v>80</v>
@@ -19230,21 +19244,21 @@
         <v>22</v>
       </c>
       <c r="AL149" t="s" s="2">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="AM149" t="s" s="2">
         <v>22</v>
       </c>
       <c r="AN149" t="s" s="2">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" t="s" s="2">
@@ -19267,13 +19281,13 @@
         <v>22</v>
       </c>
       <c r="K150" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="M150" t="s" s="2">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="N150" s="2"/>
       <c r="O150" s="2"/>
@@ -19300,13 +19314,13 @@
         <v>22</v>
       </c>
       <c r="X150" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Y150" t="s" s="2">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="Z150" t="s" s="2">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="AA150" t="s" s="2">
         <v>22</v>
@@ -19324,7 +19338,7 @@
         <v>22</v>
       </c>
       <c r="AF150" t="s" s="2">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="AG150" t="s" s="2">
         <v>80</v>
@@ -19342,21 +19356,21 @@
         <v>22</v>
       </c>
       <c r="AL150" t="s" s="2">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="AM150" t="s" s="2">
         <v>22</v>
       </c>
       <c r="AN150" t="s" s="2">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="151" hidden="true">
       <c r="A151" t="s" s="2">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" t="s" s="2">
@@ -19379,16 +19393,16 @@
         <v>22</v>
       </c>
       <c r="K151" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="M151" t="s" s="2">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="N151" t="s" s="2">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="O151" s="2"/>
       <c r="P151" t="s" s="2">
@@ -19438,7 +19452,7 @@
         <v>22</v>
       </c>
       <c r="AF151" t="s" s="2">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="AG151" t="s" s="2">
         <v>80</v>
@@ -19456,7 +19470,7 @@
         <v>22</v>
       </c>
       <c r="AL151" t="s" s="2">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="AM151" t="s" s="2">
         <v>22</v>
@@ -19467,10 +19481,10 @@
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" t="s" s="2">
@@ -19493,13 +19507,13 @@
         <v>22</v>
       </c>
       <c r="K152" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M152" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N152" s="2"/>
       <c r="O152" s="2"/>
@@ -19550,7 +19564,7 @@
         <v>22</v>
       </c>
       <c r="AF152" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AG152" t="s" s="2">
         <v>80</v>
@@ -19568,7 +19582,7 @@
         <v>22</v>
       </c>
       <c r="AL152" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AM152" t="s" s="2">
         <v>22</v>
@@ -19579,10 +19593,10 @@
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" t="s" s="2">
@@ -19611,7 +19625,7 @@
         <v>136</v>
       </c>
       <c r="M153" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="N153" t="s" s="2">
         <v>138</v>
@@ -19664,7 +19678,7 @@
         <v>22</v>
       </c>
       <c r="AF153" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AG153" t="s" s="2">
         <v>80</v>
@@ -19682,7 +19696,7 @@
         <v>22</v>
       </c>
       <c r="AL153" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AM153" t="s" s="2">
         <v>22</v>
@@ -19693,14 +19707,14 @@
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E154" s="2"/>
       <c r="F154" t="s" s="2">
@@ -19722,10 +19736,10 @@
         <v>135</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M154" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="N154" t="s" s="2">
         <v>138</v>
@@ -19780,7 +19794,7 @@
         <v>22</v>
       </c>
       <c r="AF154" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AG154" t="s" s="2">
         <v>80</v>
@@ -19809,10 +19823,10 @@
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" t="s" s="2">
@@ -19835,13 +19849,13 @@
         <v>22</v>
       </c>
       <c r="K155" t="s" s="2">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="M155" t="s" s="2">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="N155" s="2"/>
       <c r="O155" s="2"/>
@@ -19892,7 +19906,7 @@
         <v>22</v>
       </c>
       <c r="AF155" t="s" s="2">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="AG155" t="s" s="2">
         <v>89</v>
@@ -19907,24 +19921,24 @@
         <v>101</v>
       </c>
       <c r="AK155" t="s" s="2">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="AL155" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="AM155" t="s" s="2">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="AN155" t="s" s="2">
-        <v>593</v>
+        <v>595</v>
       </c>
     </row>
     <row r="156" hidden="true">
       <c r="A156" t="s" s="2">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" t="s" s="2">
@@ -19950,13 +19964,13 @@
         <v>109</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="M156" t="s" s="2">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="N156" t="s" s="2">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="O156" s="2"/>
       <c r="P156" t="s" s="2">
@@ -19982,13 +19996,13 @@
         <v>22</v>
       </c>
       <c r="X156" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Y156" t="s" s="2">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="Z156" t="s" s="2">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="AA156" t="s" s="2">
         <v>22</v>
@@ -20006,7 +20020,7 @@
         <v>22</v>
       </c>
       <c r="AF156" t="s" s="2">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="AG156" t="s" s="2">
         <v>80</v>
@@ -20024,7 +20038,7 @@
         <v>22</v>
       </c>
       <c r="AL156" t="s" s="2">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="AM156" t="s" s="2">
         <v>22</v>
@@ -20035,10 +20049,10 @@
     </row>
     <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" t="s" s="2">
@@ -20061,16 +20075,16 @@
         <v>22</v>
       </c>
       <c r="K157" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L157" t="s" s="2">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="M157" t="s" s="2">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="N157" t="s" s="2">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="O157" s="2"/>
       <c r="P157" t="s" s="2">
@@ -20096,13 +20110,13 @@
         <v>22</v>
       </c>
       <c r="X157" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Y157" t="s" s="2">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="Z157" t="s" s="2">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="AA157" t="s" s="2">
         <v>22</v>
@@ -20120,7 +20134,7 @@
         <v>22</v>
       </c>
       <c r="AF157" t="s" s="2">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="AG157" t="s" s="2">
         <v>80</v>
@@ -20149,10 +20163,10 @@
     </row>
     <row r="158" hidden="true">
       <c r="A158" t="s" s="2">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" t="s" s="2">
@@ -20175,13 +20189,13 @@
         <v>22</v>
       </c>
       <c r="K158" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="M158" t="s" s="2">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="N158" s="2"/>
       <c r="O158" s="2"/>
@@ -20232,7 +20246,7 @@
         <v>22</v>
       </c>
       <c r="AF158" t="s" s="2">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="AG158" t="s" s="2">
         <v>80</v>
@@ -20250,7 +20264,7 @@
         <v>22</v>
       </c>
       <c r="AL158" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="AM158" t="s" s="2">
         <v>22</v>
@@ -20261,10 +20275,10 @@
     </row>
     <row r="159" hidden="true">
       <c r="A159" t="s" s="2">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" t="s" s="2">
@@ -20272,7 +20286,7 @@
       </c>
       <c r="E159" s="2"/>
       <c r="F159" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G159" t="s" s="2">
         <v>89</v>
@@ -20287,13 +20301,13 @@
         <v>22</v>
       </c>
       <c r="K159" t="s" s="2">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="M159" t="s" s="2">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="N159" s="2"/>
       <c r="O159" s="2"/>
@@ -20344,7 +20358,7 @@
         <v>22</v>
       </c>
       <c r="AF159" t="s" s="2">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="AG159" t="s" s="2">
         <v>80</v>
@@ -20359,24 +20373,24 @@
         <v>101</v>
       </c>
       <c r="AK159" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="AL159" t="s" s="2">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="AM159" t="s" s="2">
         <v>22</v>
       </c>
       <c r="AN159" t="s" s="2">
-        <v>615</v>
+        <v>617</v>
       </c>
     </row>
     <row r="160" hidden="true">
       <c r="A160" t="s" s="2">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" t="s" s="2">
@@ -20399,16 +20413,16 @@
         <v>22</v>
       </c>
       <c r="K160" t="s" s="2">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="L160" t="s" s="2">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="M160" t="s" s="2">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="N160" t="s" s="2">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="O160" s="2"/>
       <c r="P160" t="s" s="2">
@@ -20458,7 +20472,7 @@
         <v>22</v>
       </c>
       <c r="AF160" t="s" s="2">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="AG160" t="s" s="2">
         <v>80</v>
@@ -20473,10 +20487,10 @@
         <v>101</v>
       </c>
       <c r="AK160" t="s" s="2">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="AL160" t="s" s="2">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="AM160" t="s" s="2">
         <v>22</v>
